--- a/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
+++ b/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5381,4 +5382,2526 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>131.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7695</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0631</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9552</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7852</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7428</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7367</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5926</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4981</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4170</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3634</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
+++ b/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7904,4 +7905,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5259</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3955</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
+++ b/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8949,4 +8950,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
+++ b/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8958,7 +8959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8969,17 +8970,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8989,14 +9010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.78</v>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -9005,14 +9048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.04</v>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -9021,14 +9086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.78</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3838</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9037,13 +9124,1633 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1405</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6773</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4857</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4616</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3864</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>79</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>42.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
+++ b/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10649,7 +10650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10660,17 +10661,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10680,14 +10701,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.84</v>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -10696,14 +10739,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.78</v>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -10712,14 +10777,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.04</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -10728,14 +10815,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>48</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.78</v>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -10744,13 +10853,1041 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5863</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5328</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>52.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>79</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>42.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
+++ b/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11770,7 +11771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11781,17 +11782,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11801,14 +11822,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.64</v>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -11817,14 +11860,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.84</v>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9413</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -11833,14 +11898,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.78</v>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -11849,14 +11936,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.04</v>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -11865,14 +11974,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>48</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.78</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -11881,13 +12012,1549 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2633</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012029</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012030</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>48</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>79</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>42.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
+++ b/数据整理/stocks/A股/创业板/300699-光威复材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="D2" t="n">
-        <v>10.13</v>
+        <v>62.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>7.64</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>15.84</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>7.78</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>25.04</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>20.78</v>
+        <v>25.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>79</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>42.2</v>
       </c>
     </row>
@@ -600,6 +617,8294 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H218"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>105.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8612</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2454</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6686</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2903</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2755</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国长期成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>55.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2658</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1664</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0676</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9208</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8601</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8550</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8286</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7536</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6112</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5953</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5806</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5533</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5299</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5254</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5133</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4792</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4673</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4424</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013484</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4331</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4034</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3988</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>47.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>63.73</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>27.89</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014903</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长城新能源股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014647</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>融通先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014902</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长城新能源股票A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011803</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>景顺宁景6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>016059</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014648</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>融通先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012669</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>012670</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011804</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>景顺宁景6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>63.73</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>013017</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>015756</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>015692</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>016061</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>34.76</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>013018</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>016050</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>016906</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>015691</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>富国长期成长混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>016263</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +10554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3369,7 +11674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5059,7 +13364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6103,7 +14408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8625,7 +16930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10505,7 +18810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
